--- a/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
+++ b/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.067871135592488</v>
+        <v>0.06824811208346095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987601550855305</v>
+        <v>0.9987532686177982</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
+++ b/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06824811208346095</v>
+        <v>0.06752677369366267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987532686177982</v>
+        <v>0.9987664457619022</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
+++ b/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06752677369366267</v>
+        <v>0.06737435472845997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987664457619022</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9987692300954371</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2060008420292294</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
+++ b/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06737435472845997</v>
+        <v>0.0675542386722679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987692300954371</v>
+        <v>0.9987659440417859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2060008420292294</v>
+        <v>0.2056142416656275</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model',
+                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
+++ b/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0675542386722679</v>
+        <v>0.06743097493015897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987659440417859</v>
+        <v>0.9987681957784403</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2056142416656275</v>
+        <v>0.206184617309753</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -490,6 +500,12 @@
           <t>Pipeline(steps=[('model',
                  RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1311458841167526</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
+++ b/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06743097493015897</v>
+        <v>0.06793334436019421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987681957784403</v>
+        <v>0.9987590186786677</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206184617309753</v>
+        <v>0.2064949999793222</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,15 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1311458841167526</v>
+        <v>0.140270091266575</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.961</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
+++ b/predictions/single/RandomForestRegressor/Neuropatía individual.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06793334436019421</v>
+        <v>0.06663987991766124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987590186786677</v>
+        <v>0.998782647210843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2064949999793222</v>
+        <v>0.2049441557218043</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.140270091266575</v>
+        <v>0.129829331083359</v>
       </c>
       <c r="H2" t="n">
-        <v>0.961</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
